--- a/IPO.xlsx
+++ b/IPO.xlsx
@@ -35,8 +35,9 @@
 Product product
 ArrayList productList;
 Scanner scan
-Boolean isDone
+Boolean isDone=false
 double total
+Double subtotal
 int taxRate
 double taxAmt
 String choice</t>
@@ -93,7 +94,7 @@
     <t xml:space="preserve">Calculate tax amount (taxRate/100)*subtotal</t>
   </si>
   <si>
-    <t xml:space="preserve">Print tax Amout: “The total tax is:” taxAmt</t>
+    <t xml:space="preserve">Print tax Amount: “The total tax is:” taxAmt</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate total (subtotal+taxAmt)</t>
@@ -114,6 +115,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,26 +138,28 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -163,24 +167,28 @@
       <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -188,6 +196,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -195,23 +204,67 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -219,6 +272,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -244,33 +312,65 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -324,7 +424,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -340,7 +440,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -370,7 +470,7 @@
   <dimension ref="C1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="90.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
